--- a/texts.xlsx
+++ b/texts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Expected</t>
   </si>
@@ -172,13 +172,6 @@
   [contains &lt;abc&gt;]</t>
   </si>
   <si>
-    <t>&lt;abcdef&gt; [starts with &lt;abc&gt;]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no item 
-  [contains &lt;abc&gt;] </t>
-  </si>
-  <si>
     <t>one item
   [ &lt;xyz&gt; which not contains &lt;abc&gt;]</t>
   </si>
@@ -239,6 +232,16 @@
   <si>
     <t>nothing
 &lt;ClassCastException&gt; wich is not an exception of type &lt;IOException&gt;</t>
+  </si>
+  <si>
+    <t>alle nicht matcher werden angezeigt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no item matches: 
+  [&lt;xyz&gt; does not contain not &lt;abc&gt;] </t>
+  </si>
+  <si>
+    <t>[starts with &lt;abc&gt;]</t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +276,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -286,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -305,6 +314,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,13 +654,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -664,33 +676,33 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -714,7 +726,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -729,14 +741,14 @@
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -746,10 +758,10 @@
         <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -772,7 +784,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>30</v>
@@ -789,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>36</v>
@@ -845,22 +857,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -899,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -914,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -929,7 +941,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1022,12 +1034,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
